--- a/data/trans_bre/P16A09-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P16A09-Dificultad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>3.74313486914505</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5.185623040401712</v>
+        <v>5.18562304040171</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5329310204132441</v>
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.4246718242399752</v>
+        <v>0.2912535792464291</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.936428310550931</v>
+        <v>2.864269245039353</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.329266179379366</v>
+        <v>2.267126634004084</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.593390809824863</v>
+        <v>2.761252784085018</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.05654217636497928</v>
+        <v>0.03758814549297816</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9782327997717134</v>
+        <v>1.027226695173494</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>1.102545432055473</v>
+        <v>1.069096790660278</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.4736482949779588</v>
+        <v>0.51662349057785</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.3878559821645</v>
+        <v>4.85043841936321</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.671891183954211</v>
+        <v>6.437289812986012</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.322505689875387</v>
+        <v>5.348360708443601</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.601973662948056</v>
+        <v>7.453617626259261</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.545285876511069</v>
+        <v>1.275298049172487</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>4.45009778817507</v>
+        <v>4.485396166809983</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>5.102391314827672</v>
+        <v>5.03308048344289</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>3.32837097602772</v>
+        <v>3.230363613478112</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1573791064192483</v>
+        <v>0.2735472690232983</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.306689093125433</v>
+        <v>2.283477940090903</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7249764160453416</v>
+        <v>0.5464195992870051</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2.151806356595267</v>
+        <v>2.287540958444364</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.04230963152173883</v>
+        <v>0.04472084924035529</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9209681812359501</v>
+        <v>0.9919542114996778</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2594584207309096</v>
+        <v>0.1859081942677611</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.5707964775354623</v>
+        <v>0.6869413226124166</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.561965620856423</v>
+        <v>3.637361373614616</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>5.510725915841289</v>
+        <v>5.402113340057002</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3.541187953564321</v>
+        <v>3.503188905630961</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5.261168872359525</v>
+        <v>5.191495200188641</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.637341281709314</v>
+        <v>1.635363865442658</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>5.729344700835589</v>
+        <v>6.442217605254996</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>4.277283915155186</v>
+        <v>4.135444587794524</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>2.712803476449412</v>
+        <v>2.818337756464181</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4165420445482631</v>
+        <v>0.3905575949207203</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.7758525382601</v>
+        <v>1.652113205668526</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.719511127949037</v>
+        <v>0.7184111324789394</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.805793076429963</v>
+        <v>2.758828973505276</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1508455094463631</v>
+        <v>0.1503599035102043</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6649693869493836</v>
+        <v>0.5680943040721315</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2248639682193575</v>
+        <v>0.3027065854593686</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>1.662313712674331</v>
+        <v>1.865442646033707</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.23242961896963</v>
+        <v>3.146073418712927</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.444220501845062</v>
+        <v>5.299142177551134</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.882664362618721</v>
+        <v>3.833654502649317</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.256714378250249</v>
+        <v>5.395508330443601</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>2.783560957134283</v>
+        <v>2.673351815329579</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>4.696065699619754</v>
+        <v>4.105002346561515</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>5.436998102505854</v>
+        <v>5.87210937833008</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>8.583303879534723</v>
+        <v>8.760310493088845</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-3.578434698517287</v>
+        <v>-3.642887320830339</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.2171428952753862</v>
+        <v>-0.2684709472181347</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.175276344264616</v>
+        <v>-1.102274426414416</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5405904270635584</v>
+        <v>0.4841937628416601</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.7208474951709383</v>
+        <v>-0.7215661105943905</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.142650167664044</v>
+        <v>-0.1081767281265478</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.7019379749204928</v>
+        <v>-0.6207419171622968</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.2103469066508137</v>
+        <v>0.2199849531520199</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.593372457320169</v>
+        <v>1.725121776554251</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>5.958043218672443</v>
+        <v>5.826388461161726</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.895093025766831</v>
+        <v>2.091978533087012</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>2.775183358893741</v>
+        <v>2.75458782546734</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5806034151240332</v>
+        <v>0.7708985550189263</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.573380958148732</v>
+        <v>2.592829441191898</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>3.209302010858023</v>
+        <v>3.595707339950718</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>2.62220467648432</v>
+        <v>2.72272975615053</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.081064351208601</v>
+        <v>1.048692447483292</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.75156891143909</v>
+        <v>2.745948949107242</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.605433360391737</v>
+        <v>1.714495133746324</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.834333239974639</v>
+        <v>2.765863603665527</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.3126343998926452</v>
+        <v>0.315688494239571</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>1.127131365332736</v>
+        <v>1.060437876771034</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>1.03260328547659</v>
+        <v>1.079616786734088</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>1.169430002438723</v>
+        <v>1.189653092209561</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.974710063706693</v>
+        <v>2.991108238484622</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.802913399775161</v>
+        <v>4.673034503833533</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.21331319531251</v>
+        <v>3.342756272974685</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.314921038334673</v>
+        <v>4.342735457401599</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.175298094098854</v>
+        <v>1.18083129485571</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2.745971493302096</v>
+        <v>2.685680033641444</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>3.159300805142172</v>
+        <v>3.161310148235373</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>2.633576982396159</v>
+        <v>2.767825409221038</v>
       </c>
     </row>
     <row r="19">
